--- a/DoAn/DoAn_CuaHangDaQuy/src/TestCase/TestCase.xlsx
+++ b/DoAn/DoAn_CuaHangDaQuy/src/TestCase/TestCase.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b71b51f2721cbf3/ChiaSe/Java/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HocTap\HK1\Java\DoAn\DoAn\java_IS216.M22_10\DoAn\DoAn_CuaHangDaQuy\src\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="338" documentId="8_{4B98DEF9-5566-9241-9312-6911E6A65028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C053C6A-7BA5-4698-A25A-176AF6E71FBF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7466ED-CCBF-4482-840C-E85F8B24AC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{1F8B088D-C0C6-504A-BB98-85BBFC1C1935}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{1F8B088D-C0C6-504A-BB98-85BBFC1C1935}"/>
   </bookViews>
   <sheets>
     <sheet name="Usecase 1 (CB)" sheetId="1" r:id="rId1"/>
     <sheet name="Usecase 2 (CB)" sheetId="5" r:id="rId2"/>
     <sheet name="Usecase 3 (CB)" sheetId="4" r:id="rId3"/>
     <sheet name="Usecase 4 (NC)" sheetId="3" r:id="rId4"/>
-    <sheet name="Usecase 5 (NC)" sheetId="6" r:id="rId5"/>
+    <sheet name="Usecase 5 (NC)" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="134">
   <si>
     <t>Usecase</t>
   </si>
@@ -381,6 +381,66 @@
   </si>
   <si>
     <t>Nhấn nút hủy</t>
+  </si>
+  <si>
+    <t>Tuấn</t>
+  </si>
+  <si>
+    <t>21/06/2022</t>
+  </si>
+  <si>
+    <t>20/06/2022</t>
+  </si>
+  <si>
+    <t>Dùng sum trên report để hiển thị tổng doanh thu năm</t>
+  </si>
+  <si>
+    <t>Report Doanh thu theo năm</t>
+  </si>
+  <si>
+    <t>Xuất thông tin hóa đơn theo năm lên report</t>
+  </si>
+  <si>
+    <t>Dùng sum trên report để hiển thị tổng doanh thu tháng</t>
+  </si>
+  <si>
+    <t>Report Doanh thu theo tháng</t>
+  </si>
+  <si>
+    <t>Xuất thông tin hóa đơn theo tháng lên report</t>
+  </si>
+  <si>
+    <t>Gom nhóm danh sách sản phẩm theo tên loại sản phẩm</t>
+  </si>
+  <si>
+    <t>Report Tồn kho</t>
+  </si>
+  <si>
+    <t>Xuất thông tin sản phẩm tồn kho lên report</t>
+  </si>
+  <si>
+    <t>Xuất thông tin, chi tiết phiếu dịch vụ lên report</t>
+  </si>
+  <si>
+    <t>Report Phiếu dịch vụ</t>
+  </si>
+  <si>
+    <t>Dùng sum trên report để hiển thị thành tiền phiếu nhập</t>
+  </si>
+  <si>
+    <t>Report Phiếu Nhập</t>
+  </si>
+  <si>
+    <t>Xuất thông tin, chi tiết phiếu nhập lên report</t>
+  </si>
+  <si>
+    <t>Xuất thông tin, chi tiết hóa đơn lên report</t>
+  </si>
+  <si>
+    <t>Report Hóa đơn</t>
+  </si>
+  <si>
+    <t>Tạo các report</t>
   </si>
 </sst>
 </file>
@@ -653,7 +713,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -672,6 +732,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="2" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -701,104 +786,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="2" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u val="none"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1393,6 +1416,245 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4007223" cy="2815181"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A2915E-DAC4-4739-AD8F-59F8E29D36A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="1400175"/>
+          <a:ext cx="4007223" cy="2815181"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>618564</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4086175" cy="2886635"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6464F102-8120-4F92-8E9E-6AE00B40460F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3133164" y="1388409"/>
+          <a:ext cx="4086175" cy="2886635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>96982</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4140880" cy="2904362"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7394E24-98A4-4081-9815-1723581CDCF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4287982" y="1400176"/>
+          <a:ext cx="4140880" cy="2904362"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>27709</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4151474" cy="3013559"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E84026-746C-4AAE-832D-9356E610E9DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4228234"/>
+          <a:ext cx="4151474" cy="3013559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>803565</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>150865</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4013742" cy="2886245"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6A58F8-1F61-490F-B855-D49DA92347FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3318165" y="4351390"/>
+          <a:ext cx="4013742" cy="2886245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>96981</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>32991</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4100461" cy="2971001"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE503898-171D-44BE-AFFD-02928629F438}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4287981" y="4233516"/>
+          <a:ext cx="4100461" cy="2971001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1692,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21AC022-16B2-0946-BB94-CCE976ABAA33}">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1708,419 +1970,419 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="20">
         <v>44704</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="7" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="K8" s="10" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="K8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="12"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="23"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="15"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="26"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="15"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="26"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="15"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="26"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="15"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="26"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="15"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="26"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="15"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="26"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="15"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="26"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="15"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="26"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="15"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="26"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="15"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="26"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="15"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="26"/>
     </row>
     <row r="20" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="18"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="29"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="26"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="26"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="26"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="18"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20" t="s">
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="20"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -2155,7 +2417,7 @@
       <c r="B38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="8" t="s">
@@ -2175,7 +2437,7 @@
       <c r="B39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D39" s="8" t="s">
@@ -2195,19 +2457,19 @@
       <c r="B40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="12">
         <v>44704</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G40" s="27">
+      <c r="G40" s="12">
         <v>44706</v>
       </c>
       <c r="H40" s="8" t="s">
@@ -2221,13 +2483,13 @@
       <c r="B41" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="12">
         <v>44704</v>
       </c>
       <c r="F41" s="8" t="s">
@@ -2243,7 +2505,7 @@
       <c r="B42" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="8" t="s">
@@ -2263,7 +2525,7 @@
       <c r="B43" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="8" t="s">
@@ -2283,19 +2545,19 @@
       <c r="B44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E44" s="27">
+      <c r="E44" s="12">
         <v>44704</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G44" s="27">
+      <c r="G44" s="12">
         <v>44706</v>
       </c>
       <c r="H44" s="8" t="s">
@@ -2309,7 +2571,7 @@
       <c r="B45" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="8" t="s">
@@ -2329,7 +2591,7 @@
       <c r="B46" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="8" t="s">
@@ -2349,7 +2611,7 @@
       <c r="B47" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="8" t="s">
@@ -2369,7 +2631,7 @@
       <c r="B48" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="8" t="s">
@@ -2389,13 +2651,13 @@
       <c r="B49" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="27">
+      <c r="E49" s="12">
         <v>44704</v>
       </c>
       <c r="F49" s="8" t="s">
@@ -2411,7 +2673,7 @@
       <c r="B50" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="8" t="s">
@@ -2431,7 +2693,7 @@
       <c r="B51" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="8" t="s">
@@ -2451,7 +2713,7 @@
       <c r="B52" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="8" t="s">
@@ -2471,19 +2733,19 @@
       <c r="B53" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="27">
+      <c r="E53" s="12">
         <v>44704</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G53" s="27">
+      <c r="G53" s="12">
         <v>44706</v>
       </c>
       <c r="H53" s="8" t="s">
@@ -2497,13 +2759,13 @@
       <c r="B54" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E54" s="27">
+      <c r="E54" s="12">
         <v>44704</v>
       </c>
       <c r="F54" s="8" t="s">
@@ -2519,7 +2781,7 @@
       <c r="B55" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="8" t="s">
@@ -2539,7 +2801,7 @@
       <c r="B56" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="8" t="s">
@@ -2559,19 +2821,19 @@
       <c r="B57" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E57" s="27">
+      <c r="E57" s="12">
         <v>44704</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G57" s="27">
+      <c r="G57" s="12">
         <v>44706</v>
       </c>
       <c r="H57" s="8" t="s">
@@ -2585,7 +2847,7 @@
       <c r="B58" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="8" t="s">
@@ -2605,7 +2867,7 @@
       <c r="B59" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="8" t="s">
@@ -2625,7 +2887,7 @@
       <c r="B60" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="8" t="s">
@@ -2645,7 +2907,7 @@
       <c r="B61" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="8" t="s">
@@ -2665,7 +2927,7 @@
       <c r="B62" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="8" t="s">
@@ -2685,7 +2947,7 @@
       <c r="B63" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="8" t="s">
@@ -2705,7 +2967,7 @@
       <c r="B64" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="8" t="s">
@@ -2725,7 +2987,7 @@
       <c r="B65" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="8" t="s">
@@ -2742,13 +3004,13 @@
       <c r="A66" s="5">
         <v>29</v>
       </c>
-      <c r="B66" s="28" t="s">
+      <c r="B66" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D66" s="29" t="s">
+      <c r="D66" s="14" t="s">
         <v>55</v>
       </c>
       <c r="E66" s="8"/>
@@ -2762,13 +3024,13 @@
       <c r="A67" s="5">
         <v>30</v>
       </c>
-      <c r="B67" s="28" t="s">
+      <c r="B67" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="29" t="s">
+      <c r="D67" s="14" t="s">
         <v>55</v>
       </c>
       <c r="E67" s="8"/>
@@ -2782,13 +3044,13 @@
       <c r="A68" s="5">
         <v>31</v>
       </c>
-      <c r="B68" s="28" t="s">
+      <c r="B68" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="29" t="s">
+      <c r="D68" s="14" t="s">
         <v>55</v>
       </c>
       <c r="E68" s="8"/>
@@ -2800,24 +3062,24 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="K8:P20"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A8:I33"/>
-    <mergeCell ref="K8:P20"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="C38:C68">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"Warning"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C68">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"Bug"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2852,579 +3114,579 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="20">
         <v>44704</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="7" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="K8" s="10" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="K8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="12"/>
-      <c r="R8" s="10" t="s">
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="23"/>
+      <c r="R8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="12"/>
-      <c r="Y8" s="10" t="s">
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="23"/>
+      <c r="Y8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="12"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="23"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="15"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="15"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="15"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="26"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="26"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="26"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="15"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="15"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="15"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="26"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="26"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="26"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="15"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="15"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="15"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="26"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="26"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="26"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="15"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="15"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="15"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="26"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="26"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="26"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="15"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="15"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="15"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="26"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="26"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="26"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="15"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="15"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="15"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="26"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="26"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="26"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="15"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="15"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="15"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="26"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="26"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="26"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="15"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="15"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="15"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="26"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="26"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="26"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="15"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="15"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="15"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="26"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="26"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="26"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="15"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="15"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="15"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="26"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="26"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="26"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="15"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="15"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="15"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="26"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="26"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="26"/>
     </row>
     <row r="20" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="18"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="18"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="18"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="29"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="29"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="29"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="26"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="26"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="26"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="18"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20" t="s">
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="20"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -3459,7 +3721,7 @@
       <c r="B38" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="8" t="s">
@@ -3479,19 +3741,19 @@
       <c r="B39" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="12">
         <v>44704</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="27">
+      <c r="G39" s="12">
         <v>44706</v>
       </c>
       <c r="H39" s="8" t="s">
@@ -3505,7 +3767,7 @@
       <c r="B40" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="8" t="s">
@@ -3525,7 +3787,7 @@
       <c r="B41" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="8" t="s">
@@ -3545,7 +3807,7 @@
       <c r="B42" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="8" t="s">
@@ -3565,7 +3827,7 @@
       <c r="B43" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="8" t="s">
@@ -3585,7 +3847,7 @@
       <c r="B44" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="8" t="s">
@@ -3605,7 +3867,7 @@
       <c r="B45" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="8" t="s">
@@ -3625,19 +3887,19 @@
       <c r="B46" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E46" s="12">
         <v>44704</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G46" s="27">
+      <c r="G46" s="12">
         <v>44706</v>
       </c>
       <c r="H46" s="8" t="s">
@@ -3651,7 +3913,7 @@
       <c r="B47" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="8" t="s">
@@ -3671,19 +3933,19 @@
       <c r="B48" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="27">
+      <c r="E48" s="12">
         <v>44704</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G48" s="27">
+      <c r="G48" s="12">
         <v>44706</v>
       </c>
       <c r="H48" s="8" t="s">
@@ -3697,19 +3959,19 @@
       <c r="B49" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E49" s="27">
+      <c r="E49" s="12">
         <v>44704</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G49" s="27"/>
+      <c r="G49" s="12"/>
       <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3719,7 +3981,7 @@
       <c r="B50" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="8" t="s">
@@ -3739,7 +4001,7 @@
       <c r="B51" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="8" t="s">
@@ -3759,7 +4021,7 @@
       <c r="B52" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="8" t="s">
@@ -3779,7 +4041,7 @@
       <c r="B53" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="8" t="s">
@@ -3805,15 +4067,15 @@
     <mergeCell ref="B5:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="C38:C53">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"Warning"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C53">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"Bug"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3832,7 +4094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D507ED-B1E4-4516-86CC-0501EBEA756A}">
   <dimension ref="A1:AD57"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
@@ -3848,579 +4110,579 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="20">
         <v>44704</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="7" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="K8" s="10" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="K8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="12"/>
-      <c r="R8" s="10" t="s">
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="23"/>
+      <c r="R8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="12"/>
-      <c r="Y8" s="10" t="s">
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="23"/>
+      <c r="Y8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="12"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="23"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="15"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="15"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="15"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="26"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="26"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="26"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="15"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="15"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="15"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="26"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="26"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="26"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="15"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="15"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="15"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="26"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="26"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="26"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="15"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="15"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="15"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="26"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="26"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="26"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="15"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="15"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="15"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="26"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="26"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="26"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="15"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="15"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="15"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="26"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="26"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="26"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="15"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="15"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="15"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="26"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="26"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="26"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="15"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="15"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="15"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="26"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="26"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="26"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="15"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="15"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="15"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="26"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="26"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="26"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="15"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="15"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="15"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="26"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="26"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="26"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="15"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="15"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="15"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="26"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="26"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="26"/>
     </row>
     <row r="20" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="18"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="18"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="18"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="29"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="29"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="29"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="26"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="26"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="26"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="18"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20" t="s">
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="20"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -4455,7 +4717,7 @@
       <c r="B38" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="8" t="s">
@@ -4475,13 +4737,13 @@
       <c r="B39" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="12">
         <v>44704</v>
       </c>
       <c r="F39" s="8" t="s">
@@ -4497,13 +4759,13 @@
       <c r="B40" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="12">
         <v>44704</v>
       </c>
       <c r="F40" s="8" t="s">
@@ -4519,13 +4781,13 @@
       <c r="B41" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="12">
         <v>44704</v>
       </c>
       <c r="F41" s="8" t="s">
@@ -4541,7 +4803,7 @@
       <c r="B42" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="8" t="s">
@@ -4561,7 +4823,7 @@
       <c r="B43" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="8" t="s">
@@ -4581,19 +4843,19 @@
       <c r="B44" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="27">
+      <c r="E44" s="12">
         <v>44704</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G44" s="27">
+      <c r="G44" s="12">
         <v>44706</v>
       </c>
       <c r="H44" s="8" t="s">
@@ -4607,13 +4869,13 @@
       <c r="B45" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E45" s="27"/>
+      <c r="E45" s="12"/>
       <c r="F45" s="8" t="s">
         <v>75</v>
       </c>
@@ -4627,7 +4889,7 @@
       <c r="B46" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="8" t="s">
@@ -4647,7 +4909,7 @@
       <c r="B47" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="8" t="s">
@@ -4667,13 +4929,13 @@
       <c r="B48" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E48" s="27">
+      <c r="E48" s="12">
         <v>44704</v>
       </c>
       <c r="F48" s="8" t="s">
@@ -4689,7 +4951,7 @@
       <c r="B49" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="8" t="s">
@@ -4709,7 +4971,7 @@
       <c r="B50" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="8" t="s">
@@ -4729,13 +4991,13 @@
       <c r="B51" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E51" s="27">
+      <c r="E51" s="12">
         <v>44704</v>
       </c>
       <c r="F51" s="8" t="s">
@@ -4751,13 +5013,13 @@
       <c r="B52" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E52" s="27">
+      <c r="E52" s="12">
         <v>44704</v>
       </c>
       <c r="F52" s="8" t="s">
@@ -4773,13 +5035,13 @@
       <c r="B53" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E53" s="27">
+      <c r="E53" s="12">
         <v>44704</v>
       </c>
       <c r="F53" s="8" t="s">
@@ -4795,7 +5057,7 @@
       <c r="B54" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="8" t="s">
@@ -4815,7 +5077,7 @@
       <c r="B55" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="8" t="s">
@@ -4835,19 +5097,19 @@
       <c r="B56" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E56" s="27">
+      <c r="E56" s="12">
         <v>44704</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G56" s="27">
+      <c r="G56" s="12">
         <v>44706</v>
       </c>
       <c r="H56" s="8" t="s">
@@ -4861,7 +5123,7 @@
       <c r="B57" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="8" t="s">
@@ -4887,15 +5149,15 @@
     <mergeCell ref="B5:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="C38:C57">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"Warning"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C57">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Bug"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4913,7 +5175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75433922-5216-4D16-A017-C79DF64F9C13}">
   <dimension ref="A1:AD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
@@ -4929,579 +5191,579 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="20">
         <v>44704</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="7" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="K8" s="10" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="K8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="12"/>
-      <c r="R8" s="10" t="s">
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="23"/>
+      <c r="R8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="12"/>
-      <c r="Y8" s="10" t="s">
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="23"/>
+      <c r="Y8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="12"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="23"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="15"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="15"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="15"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="26"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="26"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="26"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="15"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="15"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="15"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="26"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="26"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="26"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="15"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="15"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="15"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="26"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="26"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="26"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="15"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="15"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="15"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="26"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="26"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="26"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="15"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="15"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="15"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="26"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="26"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="26"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="15"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="15"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="15"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="26"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="26"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="26"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="15"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="15"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="15"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="26"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="26"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="26"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="15"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="15"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="15"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="26"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="26"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="26"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="15"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="15"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="15"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="26"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="26"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="26"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="15"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="15"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="15"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="26"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="26"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="26"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="15"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="15"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="15"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="26"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="26"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="26"/>
     </row>
     <row r="20" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="18"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="18"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="18"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="29"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="29"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="29"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="26"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="26"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="26"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="18"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20" t="s">
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="20"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -5536,7 +5798,7 @@
       <c r="B38" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="8" t="s">
@@ -5556,7 +5818,7 @@
       <c r="B39" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D39" s="8" t="s">
@@ -5576,7 +5838,7 @@
       <c r="B40" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="8" t="s">
@@ -5596,7 +5858,7 @@
       <c r="B41" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="8" t="s">
@@ -5616,7 +5878,7 @@
       <c r="B42" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="8" t="s">
@@ -5636,7 +5898,7 @@
       <c r="B43" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="8" t="s">
@@ -5656,7 +5918,7 @@
       <c r="B44" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="8" t="s">
@@ -5676,7 +5938,7 @@
       <c r="B45" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="8" t="s">
@@ -5696,7 +5958,7 @@
       <c r="B46" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="8" t="s">
@@ -5716,7 +5978,7 @@
       <c r="B47" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="8" t="s">
@@ -5736,7 +5998,7 @@
       <c r="B48" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="8" t="s">
@@ -5756,7 +6018,7 @@
       <c r="B49" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="8" t="s">
@@ -5776,7 +6038,7 @@
       <c r="B50" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="8" t="s">
@@ -5796,7 +6058,7 @@
       <c r="B51" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="8" t="s">
@@ -5816,7 +6078,7 @@
       <c r="B52" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="8" t="s">
@@ -5836,19 +6098,19 @@
       <c r="B53" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E53" s="27">
+      <c r="E53" s="12">
         <v>44704</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G53" s="27">
+      <c r="G53" s="12">
         <v>44706</v>
       </c>
       <c r="H53" s="8" t="s">
@@ -5862,19 +6124,19 @@
       <c r="B54" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E54" s="27">
+      <c r="E54" s="12">
         <v>44705</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G54" s="27">
+      <c r="G54" s="12">
         <v>44706</v>
       </c>
       <c r="H54" s="8" t="s">
@@ -5888,19 +6150,19 @@
       <c r="B55" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E55" s="27">
+      <c r="E55" s="12">
         <v>44706</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G55" s="27">
+      <c r="G55" s="12">
         <v>44706</v>
       </c>
       <c r="H55" s="8" t="s">
@@ -5914,7 +6176,7 @@
       <c r="B56" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="8" t="s">
@@ -5940,15 +6202,15 @@
     <mergeCell ref="B5:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="C38:C56">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"Warning"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C56">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Bug"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5964,17 +6226,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C0089A-1C31-4FEF-B0A2-3A8067FC4FD5}">
-  <dimension ref="A1:AD62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA849535-4187-4961-BFCF-D1D8DBCD19D0}">
+  <dimension ref="A1:AD51"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="4" max="4" width="41.375" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="41.375" style="30" customWidth="1"/>
     <col min="5" max="5" width="20.5" customWidth="1"/>
     <col min="7" max="7" width="22.625" customWidth="1"/>
   </cols>
@@ -5983,972 +6245,866 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="20">
         <v>44704</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="7" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="K8" s="10" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="K8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="12"/>
-      <c r="R8" s="10" t="s">
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="23"/>
+      <c r="R8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="12"/>
-      <c r="Y8" s="10" t="s">
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="23"/>
+      <c r="Y8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="12"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="23"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="15"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="15"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="15"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="26"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="26"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="26"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="26"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="15"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="15"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="15"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="26"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="26"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="26"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="26"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="15"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="15"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="15"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="26"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="26"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="26"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="26"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="15"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="15"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="15"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="26"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="26"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="26"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="26"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="15"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="15"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="15"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="26"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="26"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="26"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="26"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="15"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="15"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="15"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="26"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="26"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="26"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="26"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="15"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="15"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="15"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="26"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="26"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="26"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="26"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="15"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="15"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="15"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="26"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="26"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="26"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="26"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="15"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="15"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="15"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="26"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="26"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="26"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="26"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="15"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="15"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="15"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="26"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="26"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="26"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="26"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="15"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="15"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="15"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="26"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="26"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="26"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="26"/>
     </row>
     <row r="20" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="18"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="18"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="18"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="26"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="29"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="29"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="29"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="26"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="26"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="26"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="26"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="26"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="26"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="26"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="26"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="26"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
+      <c r="A31" s="41"/>
+      <c r="I31" s="40"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
-    </row>
-    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="18"/>
-    </row>
-    <row r="35" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="19" t="s">
+      <c r="A32" s="41"/>
+      <c r="I32" s="40"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="I33" s="40"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="I34" s="40"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="I35" s="40"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="39"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="36"/>
+    </row>
+    <row r="38" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="35"/>
+      <c r="D38" s="35"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20" t="s">
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="20"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="H39" s="16"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B40" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D40" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E40" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G40" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H40" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
         <v>1</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="25" t="s">
+      <c r="B41" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>2</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>3</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>4</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="31" t="s">
+        <v>131</v>
+      </c>
       <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
+      <c r="F41" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>5</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="25" t="s">
+      <c r="A42" s="6">
+        <v>2</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="8"/>
+      <c r="D42" s="31" t="s">
+        <v>130</v>
+      </c>
       <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
+      <c r="F42" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>6</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="25" t="s">
+    <row r="43" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>3</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="8"/>
+      <c r="D43" s="31" t="s">
+        <v>123</v>
+      </c>
       <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
+      <c r="F43" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>7</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="26" t="s">
+    <row r="44" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>4</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
+      <c r="D44" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <v>8</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="25" t="s">
+      <c r="A45" s="6">
+        <v>5</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="8"/>
+      <c r="D45" s="31" t="s">
+        <v>126</v>
+      </c>
       <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
+      <c r="F45" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>9</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="25" t="s">
+      <c r="A46" s="6">
+        <v>6</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="8"/>
+      <c r="D46" s="31" t="s">
+        <v>125</v>
+      </c>
       <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
+      <c r="F46" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <v>10</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="25" t="s">
+    <row r="47" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>7</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="8"/>
+      <c r="D47" s="31" t="s">
+        <v>123</v>
+      </c>
       <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
+      <c r="F47" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
-        <v>11</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="8"/>
+    <row r="48" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>8</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>122</v>
+      </c>
       <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
+      <c r="F48" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
-        <v>12</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="25" t="s">
+    <row r="49" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>9</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>10</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>13</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D50" s="8"/>
+      <c r="D50" s="31" t="s">
+        <v>119</v>
+      </c>
       <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
+      <c r="F50" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>14</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="26" t="s">
+    <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>11</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
-        <v>15</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>16</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>17</v>
-      </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
-        <v>18</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>19</v>
-      </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>20</v>
-      </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>21</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
-        <v>22</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
-        <v>23</v>
-      </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
-        <v>24</v>
-      </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <v>25</v>
-      </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
+      <c r="D51" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="14">
+    <mergeCell ref="F8:I19"/>
+    <mergeCell ref="A20:C30"/>
+    <mergeCell ref="D20:E30"/>
+    <mergeCell ref="F20:I30"/>
     <mergeCell ref="Y8:AD20"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="G39:H39"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A8:I33"/>
     <mergeCell ref="K8:P20"/>
     <mergeCell ref="R8:W20"/>
     <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A8:C19"/>
+    <mergeCell ref="D8:E19"/>
   </mergeCells>
-  <conditionalFormatting sqref="C38:C62">
+  <conditionalFormatting sqref="C41:C51">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Warning"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:C62">
+  <conditionalFormatting sqref="C41:C51">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -6957,10 +7113,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C38:C62" xr:uid="{8625C1D7-C2C5-4DC4-91DF-61F8177B301A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C41:C51" xr:uid="{8625C1D7-C2C5-4DC4-91DF-61F8177B301A}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>